--- a/output/ejecucion_2/results/base1/base1_ci_rf_o.xlsx
+++ b/output/ejecucion_2/results/base1/base1_ci_rf_o.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\GitHub\Corruption_Paper\output\ejecucion_2\results\base1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1F89BF-A19D-4FAC-84A6-16A0DC01955E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -175,8 +181,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,13 +245,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -283,7 +297,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -317,6 +331,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -351,9 +366,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -526,14 +542,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B4:F11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="27.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -541,7 +562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -549,10 +570,10 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.007218370447464765</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>7.2183704474647649E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -560,10 +581,10 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.005050268020753593</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>5.0502680207535934E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -571,10 +592,10 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.004318630670732497</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>4.3186306707324968E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -582,10 +603,10 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.003720859303339871</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>3.720859303339871E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -593,10 +614,10 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.003684415460161045</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>3.684415460161045E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -604,10 +625,10 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.00358077206067559</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>3.5807720606755898E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -615,10 +636,10 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.003427423298390717</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>3.4274232983907168E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -626,10 +647,10 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.002851202855652082</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>2.8512028556520819E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -637,10 +658,10 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.002693748006714132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>2.693748006714132E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -648,10 +669,10 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.002692915845215697</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>2.6929158452156971E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -659,10 +680,10 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>0.002553406942918083</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>2.5534069429180828E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -670,10 +691,10 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>0.002489480556326783</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>2.4894805563267829E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -681,10 +702,10 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>0.002473350751597501</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>2.4733507515975008E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -692,10 +713,10 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>0.002448092738568749</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>2.4480927385687489E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -703,10 +724,10 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>0.002386735260864139</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>2.386735260864139E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -714,10 +735,10 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>0.002310022534516376</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>2.3100225345163762E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -725,10 +746,10 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>0.002240978636389991</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>2.2409786363899909E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -736,10 +757,10 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>0.002225038770838207</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>2.225038770838207E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -747,10 +768,10 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>0.002197071578255633</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>2.1970715782556331E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -758,10 +779,10 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>0.0021768131822404</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>2.1768131822404E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -769,10 +790,10 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>0.002133470571661333</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>2.133470571661333E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -780,10 +801,10 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>0.002115966775013441</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>2.115966775013441E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -791,10 +812,10 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>0.002099482822316981</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>2.0994828223169812E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -802,10 +823,10 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>0.002087190961990019</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>2.0871909619900189E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -813,10 +834,10 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>0.00202887697296341</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>2.0288769729634101E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -824,10 +845,10 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>0.002015343527418494</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>2.015343527418494E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -835,10 +856,10 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>0.001975548500360939</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>1.975548500360939E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -846,10 +867,10 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>0.001956655245715037</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>1.9566552457150371E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -857,10 +878,10 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>0.001900349568474148</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>1.9003495684741479E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -868,10 +889,10 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>0.001878232297323517</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>1.878232297323517E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -879,10 +900,10 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>0.001817209284746563</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>1.8172092847465631E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -890,10 +911,10 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>0.001680668063426969</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>1.6806680634269689E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -901,10 +922,10 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>0.001647893690583263</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>1.647893690583263E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -912,10 +933,10 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>0.001595930514052055</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>1.595930514052055E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -923,10 +944,10 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>0.0015696980117983</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>1.5696980117983E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -934,10 +955,10 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>0.001407327552641076</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>1.407327552641076E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -945,10 +966,10 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>0.001403486182132818</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>1.403486182132818E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -956,10 +977,10 @@
         <v>39</v>
       </c>
       <c r="C39">
-        <v>0.001389466177129843</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>1.3894661771298429E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -967,10 +988,10 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>0.001387159509265831</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>1.3871595092658309E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -978,10 +999,10 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>0.001367056949933953</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>1.3670569499339531E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -989,10 +1010,10 @@
         <v>42</v>
       </c>
       <c r="C42">
-        <v>0.001364989234969987</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>1.3649892349699871E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1000,10 +1021,10 @@
         <v>43</v>
       </c>
       <c r="C43">
-        <v>0.001314090625941145</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>1.314090625941145E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1011,10 +1032,10 @@
         <v>44</v>
       </c>
       <c r="C44">
-        <v>0.001307445308450362</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>1.307445308450362E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1022,10 +1043,10 @@
         <v>45</v>
       </c>
       <c r="C45">
-        <v>0.00127687759172959</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>1.2768775917295901E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1033,10 +1054,10 @@
         <v>46</v>
       </c>
       <c r="C46">
-        <v>0.001268385107034583</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>1.2683851070345829E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1044,10 +1065,10 @@
         <v>47</v>
       </c>
       <c r="C47">
-        <v>0.001252797593150119</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>1.252797593150119E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1055,10 +1076,10 @@
         <v>48</v>
       </c>
       <c r="C48">
-        <v>0.001249100897634444</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>1.2491008976344439E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1066,10 +1087,10 @@
         <v>49</v>
       </c>
       <c r="C49">
-        <v>0.001241197676991517</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>1.241197676991517E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1077,10 +1098,10 @@
         <v>50</v>
       </c>
       <c r="C50">
-        <v>0.001222784207143972</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>1.2227842071439721E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1088,7 +1109,7 @@
         <v>51</v>
       </c>
       <c r="C51">
-        <v>0.001151610903155294</v>
+        <v>1.151610903155294E-3</v>
       </c>
     </row>
   </sheetData>
